--- a/Documentatie/Test_cases.xlsx
+++ b/Documentatie/Test_cases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olivier\Documents\Fontys\Semester 2\Individueel traject\Ontwikkelopdracht\RaadHetWoordAsp\Documentatie\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B26B3ACD-687D-4534-BFBF-7494296EBC51}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B16854C5-3C5B-4C45-85FA-A4A0AE1040A5}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12375" xr2:uid="{FFF3AB20-DF7B-4820-8C3A-4A4ADF34EE9B}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="69">
   <si>
     <t>Testcases</t>
   </si>
@@ -61,16 +61,195 @@
   </si>
   <si>
     <t>TC01</t>
+  </si>
+  <si>
+    <t>Teams aanmelden</t>
+  </si>
+  <si>
+    <t>Team 1</t>
+  </si>
+  <si>
+    <t>Team 2</t>
+  </si>
+  <si>
+    <t>geen</t>
+  </si>
+  <si>
+    <t>team</t>
+  </si>
+  <si>
+    <t>TC02</t>
+  </si>
+  <si>
+    <t>TC03</t>
+  </si>
+  <si>
+    <t>Teams worden aangemeld</t>
+  </si>
+  <si>
+    <t>Foutmelding: niet correct</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Maximale score kiezen</t>
+  </si>
+  <si>
+    <t>Ingevoerde score wordt gebruikt</t>
+  </si>
+  <si>
+    <t>Dichtstbijzijnde grens wordt gebruikt</t>
+  </si>
+  <si>
+    <t>Tussen min- en maxscore</t>
+  </si>
+  <si>
+    <t>Buiten min- en maxscore</t>
+  </si>
+  <si>
+    <t>TC04</t>
+  </si>
+  <si>
+    <t>TC05</t>
+  </si>
+  <si>
+    <t>TC06</t>
+  </si>
+  <si>
+    <t>Onderwerp kiezen</t>
+  </si>
+  <si>
+    <t>Geen onderwerp</t>
+  </si>
+  <si>
+    <t>Één onderwerp</t>
+  </si>
+  <si>
+    <t>Ingevoerde onderwerp wordt gebruikt</t>
+  </si>
+  <si>
+    <t>Alle woorden worden gebruikt</t>
+  </si>
+  <si>
+    <t>TC07</t>
+  </si>
+  <si>
+    <t>TC08</t>
+  </si>
+  <si>
+    <t>Spel starten</t>
+  </si>
+  <si>
+    <t>Valide teams, score</t>
+  </si>
+  <si>
+    <t>Teams worden weergegeven</t>
+  </si>
+  <si>
+    <t>Foutmelding, niet correct</t>
+  </si>
+  <si>
+    <t>Foute teams, score</t>
+  </si>
+  <si>
+    <t>Teams, foute score</t>
+  </si>
+  <si>
+    <t>Score wordt aangepast, teams weergeven</t>
+  </si>
+  <si>
+    <t>TC09</t>
+  </si>
+  <si>
+    <t>TC10</t>
+  </si>
+  <si>
+    <t>TC11</t>
+  </si>
+  <si>
+    <t>Antwoord goedkeuren</t>
+  </si>
+  <si>
+    <t>TC12</t>
+  </si>
+  <si>
+    <t>Antwoord afkeuren</t>
+  </si>
+  <si>
+    <t>Niet goed antwoord</t>
+  </si>
+  <si>
+    <t>Goed antwoord</t>
+  </si>
+  <si>
+    <t>TC13</t>
+  </si>
+  <si>
+    <t>Volgende ronde starten</t>
+  </si>
+  <si>
+    <t>Spel is al voorbij</t>
+  </si>
+  <si>
+    <t>Spel is niet voorbij</t>
+  </si>
+  <si>
+    <t>Volgende ronde wordt gestart</t>
+  </si>
+  <si>
+    <t>Eindscore wordt weergegeven</t>
+  </si>
+  <si>
+    <t>TC14</t>
+  </si>
+  <si>
+    <t>Antwoord wordt goedgekeurd, score verhogen</t>
+  </si>
+  <si>
+    <t>Antwoord wordt afgekeurd, score verlagen</t>
+  </si>
+  <si>
+    <t>TC15</t>
+  </si>
+  <si>
+    <t>Leaderboards bekijken</t>
+  </si>
+  <si>
+    <t>TC16</t>
+  </si>
+  <si>
+    <t>Leaderboards sorteren</t>
+  </si>
+  <si>
+    <t>Niet van toepassing</t>
+  </si>
+  <si>
+    <t>een sorteeroptie</t>
+  </si>
+  <si>
+    <t>Klassementen worden weergegeven, gesorteerd op basis van invoer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Klassementen worden weergeven, gesorteerd op basis van standaardwaarde
+</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -83,13 +262,26 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -101,17 +293,37 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Goed" xfId="1" builtinId="26"/>
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -424,13 +636,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BF4E6F1-32CA-4564-BE24-7F11FBD6944A}">
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" customWidth="1"/>
+    <col min="4" max="4" width="43.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9.140625" style="5"/>
+    <col min="9" max="9" width="12.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" style="5"/>
+    <col min="11" max="11" width="12.42578125" style="5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -474,11 +696,326 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="10" t="s">
         <v>11</v>
       </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>19</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="K5" s="6"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="K6" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K7" s="6"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C9" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K9" s="6"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>23</v>
+      </c>
+      <c r="K11" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C12" s="7"/>
+      <c r="K12" s="6"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+      <c r="K13" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C14" s="7"/>
+      <c r="K14" s="6"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" t="s">
+        <v>33</v>
+      </c>
+      <c r="K16" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" t="s">
+        <v>34</v>
+      </c>
+      <c r="K17" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" t="s">
+        <v>38</v>
+      </c>
+      <c r="D19" t="s">
+        <v>39</v>
+      </c>
+      <c r="K19" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B20" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" t="s">
+        <v>41</v>
+      </c>
+      <c r="D20" t="s">
+        <v>40</v>
+      </c>
+      <c r="K20" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B21" t="s">
+        <v>37</v>
+      </c>
+      <c r="C21" t="s">
+        <v>42</v>
+      </c>
+      <c r="D21" t="s">
+        <v>43</v>
+      </c>
+      <c r="K21" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B23" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23" t="s">
+        <v>50</v>
+      </c>
+      <c r="D23" t="s">
+        <v>59</v>
+      </c>
+      <c r="K23" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B24" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24" t="s">
+        <v>51</v>
+      </c>
+      <c r="D24" t="s">
+        <v>60</v>
+      </c>
+      <c r="K24" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B26" t="s">
+        <v>53</v>
+      </c>
+      <c r="C26" t="s">
+        <v>54</v>
+      </c>
+      <c r="D26" t="s">
+        <v>57</v>
+      </c>
+      <c r="K26" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="B27" t="s">
+        <v>53</v>
+      </c>
+      <c r="C27" t="s">
+        <v>55</v>
+      </c>
+      <c r="D27" t="s">
+        <v>56</v>
+      </c>
+      <c r="K27" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="B29" t="s">
+        <v>62</v>
+      </c>
+      <c r="C29" t="s">
+        <v>65</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="K29" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D30" s="9"/>
+      <c r="K30" s="6"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="B31" t="s">
+        <v>64</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="K31" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D32" s="8"/>
+      <c r="K32" s="6"/>
     </row>
   </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="K29:K30"/>
+    <mergeCell ref="K31:K32"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="K13:K14"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Documentatie/Test_cases.xlsx
+++ b/Documentatie/Test_cases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olivier\Documents\Fontys\Semester 2\Individueel traject\Ontwikkelopdracht\RaadHetWoordAsp\Documentatie\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B16854C5-3C5B-4C45-85FA-A4A0AE1040A5}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{341A96AE-9AC2-46EF-A16F-D29C8B6B8A13}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12375" xr2:uid="{FFF3AB20-DF7B-4820-8C3A-4A4ADF34EE9B}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="80">
   <si>
     <t>Testcases</t>
   </si>
@@ -233,6 +233,39 @@
   <si>
     <t xml:space="preserve">Klassementen worden weergeven, gesorteerd op basis van standaardwaarde
 </t>
+  </si>
+  <si>
+    <t>TC17</t>
+  </si>
+  <si>
+    <t>Te raden woorden weergeven</t>
+  </si>
+  <si>
+    <t>Woorden van een categorie</t>
+  </si>
+  <si>
+    <t>een categorie</t>
+  </si>
+  <si>
+    <t>geen categorie</t>
+  </si>
+  <si>
+    <t>Woorden van alle categorien</t>
+  </si>
+  <si>
+    <t>TC18</t>
+  </si>
+  <si>
+    <t>TC19</t>
+  </si>
+  <si>
+    <t>Tussenstand weergeven</t>
+  </si>
+  <si>
+    <t>Ronde afgelopen</t>
+  </si>
+  <si>
+    <t>Scorebord weergeven</t>
   </si>
 </sst>
 </file>
@@ -308,19 +341,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Goed" xfId="1" builtinId="26"/>
@@ -636,15 +669,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BF4E6F1-32CA-4564-BE24-7F11FBD6944A}">
-  <dimension ref="A1:K32"/>
+  <dimension ref="A1:K37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.28515625" customWidth="1"/>
     <col min="4" max="4" width="43.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.85546875" style="5" bestFit="1" customWidth="1"/>
@@ -696,7 +729,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B4" t="s">
@@ -708,7 +741,7 @@
       <c r="D4" t="s">
         <v>19</v>
       </c>
-      <c r="K4" s="6" t="s">
+      <c r="K4" s="9" t="s">
         <v>21</v>
       </c>
     </row>
@@ -716,10 +749,10 @@
       <c r="C5" t="s">
         <v>14</v>
       </c>
-      <c r="K5" s="6"/>
+      <c r="K5" s="9"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="6" t="s">
         <v>17</v>
       </c>
       <c r="B6" t="s">
@@ -731,7 +764,7 @@
       <c r="D6" t="s">
         <v>20</v>
       </c>
-      <c r="K6" s="6" t="s">
+      <c r="K6" s="9" t="s">
         <v>21</v>
       </c>
     </row>
@@ -739,10 +772,10 @@
       <c r="C7" t="s">
         <v>14</v>
       </c>
-      <c r="K7" s="6"/>
+      <c r="K7" s="9"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="6" t="s">
         <v>18</v>
       </c>
       <c r="B8" t="s">
@@ -754,7 +787,7 @@
       <c r="D8" t="s">
         <v>20</v>
       </c>
-      <c r="K8" s="6" t="s">
+      <c r="K8" s="9" t="s">
         <v>21</v>
       </c>
     </row>
@@ -762,52 +795,52 @@
       <c r="C9" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="K9" s="6"/>
+      <c r="K9" s="9"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="6" t="s">
         <v>27</v>
       </c>
       <c r="B11" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="10" t="s">
         <v>25</v>
       </c>
       <c r="D11" t="s">
         <v>23</v>
       </c>
-      <c r="K11" s="6" t="s">
+      <c r="K11" s="9" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C12" s="7"/>
-      <c r="K12" s="6"/>
+      <c r="C12" s="10"/>
+      <c r="K12" s="9"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="6" t="s">
         <v>28</v>
       </c>
       <c r="B13" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="10" t="s">
         <v>26</v>
       </c>
       <c r="D13" t="s">
         <v>24</v>
       </c>
-      <c r="K13" s="6" t="s">
+      <c r="K13" s="9" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C14" s="7"/>
-      <c r="K14" s="6"/>
+      <c r="C14" s="10"/>
+      <c r="K14" s="9"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="6" t="s">
         <v>29</v>
       </c>
       <c r="B16" t="s">
@@ -824,7 +857,7 @@
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="6" t="s">
         <v>35</v>
       </c>
       <c r="B17" t="s">
@@ -841,7 +874,7 @@
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="10" t="s">
+      <c r="A19" s="6" t="s">
         <v>36</v>
       </c>
       <c r="B19" t="s">
@@ -858,7 +891,7 @@
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="10" t="s">
+      <c r="A20" s="6" t="s">
         <v>44</v>
       </c>
       <c r="B20" t="s">
@@ -875,7 +908,7 @@
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="10" t="s">
+      <c r="A21" s="6" t="s">
         <v>45</v>
       </c>
       <c r="B21" t="s">
@@ -892,7 +925,7 @@
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="10" t="s">
+      <c r="A23" s="6" t="s">
         <v>46</v>
       </c>
       <c r="B23" t="s">
@@ -909,7 +942,7 @@
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="10" t="s">
+      <c r="A24" s="6" t="s">
         <v>48</v>
       </c>
       <c r="B24" t="s">
@@ -926,7 +959,7 @@
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="10" t="s">
+      <c r="A26" s="6" t="s">
         <v>52</v>
       </c>
       <c r="B26" t="s">
@@ -943,7 +976,7 @@
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="10" t="s">
+      <c r="A27" s="6" t="s">
         <v>58</v>
       </c>
       <c r="B27" t="s">
@@ -960,7 +993,7 @@
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="10" t="s">
+      <c r="A29" s="6" t="s">
         <v>61</v>
       </c>
       <c r="B29" t="s">
@@ -969,19 +1002,19 @@
       <c r="C29" t="s">
         <v>65</v>
       </c>
-      <c r="D29" s="8" t="s">
+      <c r="D29" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="K29" s="6" t="s">
+      <c r="K29" s="9" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D30" s="9"/>
-      <c r="K30" s="6"/>
+      <c r="D30" s="8"/>
+      <c r="K30" s="9"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="10" t="s">
+      <c r="A31" s="6" t="s">
         <v>63</v>
       </c>
       <c r="B31" t="s">
@@ -990,30 +1023,72 @@
       <c r="C31" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="D31" s="8" t="s">
+      <c r="D31" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="K31" s="6" t="s">
+      <c r="K31" s="9" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D32" s="8"/>
-      <c r="K32" s="6"/>
+      <c r="D32" s="7"/>
+      <c r="K32" s="9"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="B34" t="s">
+        <v>70</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D34" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="B35" t="s">
+        <v>70</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D35" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B37" t="s">
+        <v>77</v>
+      </c>
+      <c r="C37" t="s">
+        <v>78</v>
+      </c>
+      <c r="D37" t="s">
+        <v>79</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="K13:K14"/>
     <mergeCell ref="D31:D32"/>
     <mergeCell ref="D29:D30"/>
     <mergeCell ref="K29:K30"/>
     <mergeCell ref="K31:K32"/>
     <mergeCell ref="C11:C12"/>
     <mergeCell ref="C13:C14"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="K8:K9"/>
-    <mergeCell ref="K11:K12"/>
-    <mergeCell ref="K13:K14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>

--- a/Documentatie/Test_cases.xlsx
+++ b/Documentatie/Test_cases.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19226"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olivier\Documents\Fontys\Semester 2\Individueel traject\Ontwikkelopdracht\RaadHetWoordAsp\Documentatie\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{341A96AE-9AC2-46EF-A16F-D29C8B6B8A13}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7884B5F4-59A6-4FE4-9F20-4680D6A4A3D5}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12375" xr2:uid="{FFF3AB20-DF7B-4820-8C3A-4A4ADF34EE9B}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="80">
   <si>
     <t>Testcases</t>
   </si>
@@ -343,13 +343,13 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -671,8 +671,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BF4E6F1-32CA-4564-BE24-7F11FBD6944A}">
   <dimension ref="A1:K37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -741,7 +741,16 @@
       <c r="D4" t="s">
         <v>19</v>
       </c>
-      <c r="K4" s="9" t="s">
+      <c r="F4" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>21</v>
       </c>
     </row>
@@ -749,7 +758,7 @@
       <c r="C5" t="s">
         <v>14</v>
       </c>
-      <c r="K5" s="9"/>
+      <c r="K5" s="7"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
@@ -764,7 +773,16 @@
       <c r="D6" t="s">
         <v>20</v>
       </c>
-      <c r="K6" s="9" t="s">
+      <c r="F6" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>21</v>
       </c>
     </row>
@@ -772,7 +790,7 @@
       <c r="C7" t="s">
         <v>14</v>
       </c>
-      <c r="K7" s="9"/>
+      <c r="K7" s="7"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
@@ -787,7 +805,16 @@
       <c r="D8" t="s">
         <v>20</v>
       </c>
-      <c r="K8" s="9" t="s">
+      <c r="F8" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>21</v>
       </c>
     </row>
@@ -795,7 +822,7 @@
       <c r="C9" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="K9" s="9"/>
+      <c r="K9" s="7"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
@@ -810,13 +837,22 @@
       <c r="D11" t="s">
         <v>23</v>
       </c>
-      <c r="K11" s="9" t="s">
+      <c r="F11" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C12" s="10"/>
-      <c r="K12" s="9"/>
+      <c r="K12" s="7"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
@@ -831,13 +867,22 @@
       <c r="D13" t="s">
         <v>24</v>
       </c>
-      <c r="K13" s="9" t="s">
+      <c r="F13" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J13" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C14" s="10"/>
-      <c r="K14" s="9"/>
+      <c r="K14" s="7"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
@@ -852,6 +897,15 @@
       <c r="D16" t="s">
         <v>33</v>
       </c>
+      <c r="F16" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J16" s="5" t="s">
+        <v>21</v>
+      </c>
       <c r="K16" s="5" t="s">
         <v>21</v>
       </c>
@@ -869,6 +923,15 @@
       <c r="D17" t="s">
         <v>34</v>
       </c>
+      <c r="F17" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J17" s="5" t="s">
+        <v>21</v>
+      </c>
       <c r="K17" s="5" t="s">
         <v>21</v>
       </c>
@@ -886,6 +949,15 @@
       <c r="D19" t="s">
         <v>39</v>
       </c>
+      <c r="F19" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J19" s="5" t="s">
+        <v>21</v>
+      </c>
       <c r="K19" s="5" t="s">
         <v>21</v>
       </c>
@@ -903,6 +975,15 @@
       <c r="D20" t="s">
         <v>40</v>
       </c>
+      <c r="F20" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I20" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J20" s="5" t="s">
+        <v>21</v>
+      </c>
       <c r="K20" s="5" t="s">
         <v>21</v>
       </c>
@@ -920,6 +1001,15 @@
       <c r="D21" t="s">
         <v>43</v>
       </c>
+      <c r="F21" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I21" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J21" s="5" t="s">
+        <v>21</v>
+      </c>
       <c r="K21" s="5" t="s">
         <v>21</v>
       </c>
@@ -937,6 +1027,15 @@
       <c r="D23" t="s">
         <v>59</v>
       </c>
+      <c r="F23" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I23" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J23" s="5" t="s">
+        <v>21</v>
+      </c>
       <c r="K23" s="5" t="s">
         <v>21</v>
       </c>
@@ -954,6 +1053,15 @@
       <c r="D24" t="s">
         <v>60</v>
       </c>
+      <c r="F24" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I24" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J24" s="5" t="s">
+        <v>21</v>
+      </c>
       <c r="K24" s="5" t="s">
         <v>21</v>
       </c>
@@ -971,6 +1079,15 @@
       <c r="D26" t="s">
         <v>57</v>
       </c>
+      <c r="F26" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I26" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J26" s="5" t="s">
+        <v>21</v>
+      </c>
       <c r="K26" s="5" t="s">
         <v>21</v>
       </c>
@@ -988,6 +1105,15 @@
       <c r="D27" t="s">
         <v>56</v>
       </c>
+      <c r="F27" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I27" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J27" s="5" t="s">
+        <v>21</v>
+      </c>
       <c r="K27" s="5" t="s">
         <v>21</v>
       </c>
@@ -1002,16 +1128,25 @@
       <c r="C29" t="s">
         <v>65</v>
       </c>
-      <c r="D29" s="7" t="s">
+      <c r="D29" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="K29" s="9" t="s">
+      <c r="F29" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I29" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J29" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D30" s="8"/>
-      <c r="K30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="K30" s="7"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
@@ -1023,18 +1158,27 @@
       <c r="C31" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="D31" s="7" t="s">
+      <c r="D31" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="K31" s="9" t="s">
+      <c r="F31" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I31" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J31" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K31" s="7" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D32" s="7"/>
-      <c r="K32" s="9"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D32" s="8"/>
+      <c r="K32" s="7"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
         <v>69</v>
       </c>
@@ -1047,8 +1191,20 @@
       <c r="D34" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F34" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I34" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="J34" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="K34" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
         <v>75</v>
       </c>
@@ -1061,8 +1217,20 @@
       <c r="D35" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F35" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="I35" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J35" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="K35" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
         <v>76</v>
       </c>
@@ -1075,20 +1243,32 @@
       <c r="D37" t="s">
         <v>79</v>
       </c>
+      <c r="F37" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="I37" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="J37" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="K37" s="5" t="s">
+        <v>21</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="K8:K9"/>
-    <mergeCell ref="K11:K12"/>
-    <mergeCell ref="K13:K14"/>
     <mergeCell ref="D31:D32"/>
     <mergeCell ref="D29:D30"/>
     <mergeCell ref="K29:K30"/>
     <mergeCell ref="K31:K32"/>
     <mergeCell ref="C11:C12"/>
     <mergeCell ref="C13:C14"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="K13:K14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
